--- a/medicine/Psychotrope/Henri_Marès/Henri_Marès.xlsx
+++ b/medicine/Psychotrope/Henri_Marès/Henri_Marès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_Mar%C3%A8s</t>
+          <t>Henri_Marès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Marès, né à Chalon-sur-Saône le 18 janvier 1820 et mort au domaine de Launac-Le-Vieux sur la commune de Fabrègues (Hérault) le 9 mai 1901, est un agronome français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_Mar%C3%A8s</t>
+          <t>Henri_Marès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était ingénieur de l'École centrale des arts et manufactures de Paris (promotion 1843), mais il s'illustra surtout en viticulture. En effet, il a établi le protocole du soufrage des vignes contre l’oïdium. Pour cela, il reçut l’un des deux grands prix de l’Agriculture décernés par le jury international de l’Exposition Universelle de 1867 (Paris). L’autre prix fut attribué à Louis Pasteur. Les deux hommes devinrent amis. Marès fut aussi membre correspondant de l’Académie des sciences et de l’Académie d'agriculture.
 L'oïdium est un champignon qui, importé d'Amérique via l'Angleterre, ravagea les vignes du Midi de la France à partir de 1850. Esprit rationnel, Henri Marès essaya dans sa propriété de Launac, toutes sortes de procédés de lutte dont le soufre car il avait été prouvé antérieurement au laboratoire que celui-ci était efficace. Mais Marès détermina le moyen d'utiliser le produit au champ, calcula les doses à mettre, la périodicité des apports et les conditions climatiques les meilleures pour les traitements. En 1856, il publia dans un bulletin de la Société centrale d'agriculture de l'Hérault (SCAH) un mémoire de 83 pages résumant tous ses travaux. Le texte était clair, précis et d’une qualité scientifique qui éblouit encore un siècle et demi après. La cause est alors entendue et les viticulteurs défilent à Launac pour voir les résultats obtenus, et bien sûr pour apprendre comment traiter. Marès devient l'un des hommes les plus célèbres du Midi. Sa récompense à l'Exposition Universelle, en même temps que Pasteur, en témoigne.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henri_Mar%C3%A8s</t>
+          <t>Henri_Marès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Observations sur la maladie de la vigne en 1853 (1854)
 Mémoire sur la maladie de la vigne (1856)
